--- a/biology/Botanique/Laurent_de_Rillé_(rose)/Laurent_de_Rillé_(rose).xlsx
+++ b/biology/Botanique/Laurent_de_Rillé_(rose)/Laurent_de_Rillé_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laurent_de_Rill%C3%A9_(rose)</t>
+          <t>Laurent_de_Rillé_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽLaurent de Rillé’ est un cultivar de rosier obtenu en 1885 par le rosiériste français Louis Lévêque[1]. Il rend hommage au compositeur et chanteur Laurent de Rillé (1824-1915).
+ʽLaurent de Rillé’ est un cultivar de rosier obtenu en 1885 par le rosiériste français Louis Lévêque. Il rend hommage au compositeur et chanteur Laurent de Rillé (1824-1915).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laurent_de_Rill%C3%A9_(rose)</t>
+          <t>Laurent_de_Rillé_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de cet hybride remontant possède un port érigé et un feuillage dense et vert moyen. Ses fleurs sont grosses et doubles (17-25 pétales), placées sur des pédoncules courts et lâches, ce qui leur donne parfois un aspect incliné[2]. Elles sont rose foncé à cerise, en forme de coupe, avec des pétales festonnés, le revers pouvant présenter des reflets argentés. Elles sont modérément parfumées. La floraison est remontante.
-Cette variété supporte des températures hivernales de -15° C à -20° C[2]. Elle a besoin d'une situation ensoleillée et de soins contre les maladies du rosier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de cet hybride remontant possède un port érigé et un feuillage dense et vert moyen. Ses fleurs sont grosses et doubles (17-25 pétales), placées sur des pédoncules courts et lâches, ce qui leur donne parfois un aspect incliné. Elles sont rose foncé à cerise, en forme de coupe, avec des pétales festonnés, le revers pouvant présenter des reflets argentés. Elles sont modérément parfumées. La floraison est remontante.
+Cette variété supporte des températures hivernales de -15° C à -20° C. Elle a besoin d'une situation ensoleillée et de soins contre les maladies du rosier.
 Cette variété est très rarement commercialisée aujourd'hui, mais présente dans de grandes roseraies publiques, comme à l'Europa-Rosarium de Sangerhausen. 
 </t>
         </is>
